--- a/biology/Zoologie/Clarkina/Clarkina.xlsx
+++ b/biology/Zoologie/Clarkina/Clarkina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clarkina est un genre éteint de conodontes.
 Le nom de genre est un hommage à David Leigh Clark, paléontologue américain.
@@ -512,7 +524,9 @@
           <t>Homonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Clarkina Soodan, 1975 est un synonyme du nom de genre de concombre de mer préhistorique Soodanella Huddleston, 1982 de la famille des Priscopedatidae.
 Clarkina Jordan &amp; Evermann, 1927 est un synonyme du nom de genre de poisson cyprinidé Mylocheilus Agassiz, 1855. Le nom d'espèce Clarkina caurina (Richardson, 1836) est un synonyme de Mylocheilus caurinus (Richardson, 1836).
@@ -544,7 +558,9 @@
           <t>Espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>†Clarkina changxingensis
 †Clarkina crofti Kozur &amp; Lucas
@@ -583,7 +599,9 @@
           <t>Utilisation en stratigraphie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sommet du Capitanien (qui est aussi la base de la série du Wuchiapingien et de l'étage du Lopingien) est défini comme la place dans les enregistrements stratigraphiques où Clarkina postbitteri postbitteri fait son apparition.
 Le Capitanien contient trois biozones à conodontes :
